--- a/4_Automation/demo1.xlsx
+++ b/4_Automation/demo1.xlsx
@@ -16,17 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
-  <si>
-    <t>Hello!</t>
-  </si>
-  <si>
-    <t>Excel.</t>
-  </si>
-  <si>
-    <t>Edit by Python.</t>
-  </si>
-</sst>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -379,24 +369,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H15" sqref="H15"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
   <sheetData>
-    <row r="1" spans="1:2">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2">
-      <c r="A2" s="1" t="s">
-        <v>2</v>
-      </c>
+    <row r="2" spans="1:1">
+      <c r="A2" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
